--- a/Best20Places.xlsx
+++ b/Best20Places.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="241">
   <si>
     <t>Table_Name</t>
   </si>
@@ -223,12 +223,6 @@
   </si>
   <si>
     <t>Active</t>
-  </si>
-  <si>
-    <t>Seeing</t>
-  </si>
-  <si>
-    <t>Entertainment</t>
   </si>
   <si>
     <t>Hotel</t>
@@ -381,13 +375,7 @@
     <t>Món Huế restaurant</t>
   </si>
   <si>
-    <t>Bình Quới tourist village</t>
-  </si>
-  <si>
     <t>Rex Hotel</t>
-  </si>
-  <si>
-    <t>Văn Thánh  tourist village</t>
   </si>
   <si>
     <t>http://www.chobinhtay.gov.vn, http://en.wikipedia.org , http://www.lonelyplanet.com , http://www.eng.hochiminhcity.gov.vn/eng/news/default.aspx</t>
@@ -880,6 +868,33 @@
   </si>
   <si>
     <t xml:space="preserve">http://en.wikipedia.org  , http://www.lonelyplanet.com , http://www.eng.hochiminhcity.gov.vn/eng/news/default.aspx,  </t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Pagoda</t>
+  </si>
+  <si>
+    <t>Church</t>
+  </si>
+  <si>
+    <t>Cinema</t>
+  </si>
+  <si>
+    <t>Resort</t>
+  </si>
+  <si>
+    <t>Bình Quới resort</t>
+  </si>
+  <si>
+    <t>Văn Thánh  resort</t>
+  </si>
+  <si>
+    <t>birthday</t>
   </si>
 </sst>
 </file>
@@ -931,7 +946,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -944,6 +959,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1743,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1751,7 +1769,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1759,7 +1777,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1767,7 +1785,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1779,11 +1797,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E100"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1796,7 +1817,7 @@
         <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E1" t="s">
         <v>46</v>
@@ -1810,13 +1831,13 @@
         <f>A2</f>
         <v>10000</v>
       </c>
-      <c r="D2">
-        <f ca="1">RANDBETWEEN(1965, 2010)</f>
-        <v>2004</v>
+      <c r="D2" t="str">
+        <f ca="1">RANDBETWEEN(1965, 2000)&amp;"-1-1"</f>
+        <v>1990-1-1</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1827,13 +1848,13 @@
         <f t="shared" ref="B3:B66" si="0">A3</f>
         <v>10001</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D66" ca="1" si="1">RANDBETWEEN(1965, 2010)</f>
-        <v>1985</v>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D66" ca="1" si="1">RANDBETWEEN(1965, 2000)&amp;"-1-1"</f>
+        <v>1982-1-1</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" ca="1" si="2">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1844,9 +1865,9 @@
         <f t="shared" si="0"/>
         <v>10002</v>
       </c>
-      <c r="D4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1966</v>
+      <c r="D4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2000-1-1</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="2"/>
@@ -1861,13 +1882,13 @@
         <f t="shared" si="0"/>
         <v>10003</v>
       </c>
-      <c r="D5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1969</v>
+      <c r="D5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1974-1-1</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1878,13 +1899,13 @@
         <f t="shared" si="0"/>
         <v>10004</v>
       </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1982</v>
+      <c r="D6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1993-1-1</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1895,13 +1916,13 @@
         <f t="shared" si="0"/>
         <v>10005</v>
       </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="1"/>
-        <v>1999</v>
+      <c r="D7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1967-1-1</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1912,13 +1933,13 @@
         <f t="shared" si="0"/>
         <v>10006</v>
       </c>
-      <c r="D8">
-        <f t="shared" ca="1" si="1"/>
-        <v>1988</v>
+      <c r="D8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1991-1-1</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1929,9 +1950,9 @@
         <f t="shared" si="0"/>
         <v>10007</v>
       </c>
-      <c r="D9">
-        <f t="shared" ca="1" si="1"/>
-        <v>1988</v>
+      <c r="D9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1999-1-1</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
@@ -1946,9 +1967,9 @@
         <f t="shared" si="0"/>
         <v>10008</v>
       </c>
-      <c r="D10">
-        <f t="shared" ca="1" si="1"/>
-        <v>1969</v>
+      <c r="D10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1977-1-1</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="2"/>
@@ -1963,9 +1984,9 @@
         <f t="shared" si="0"/>
         <v>10009</v>
       </c>
-      <c r="D11">
-        <f t="shared" ca="1" si="1"/>
-        <v>1971</v>
+      <c r="D11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1996-1-1</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="2"/>
@@ -1980,9 +2001,9 @@
         <f t="shared" si="0"/>
         <v>10010</v>
       </c>
-      <c r="D12">
-        <f t="shared" ca="1" si="1"/>
-        <v>1996</v>
+      <c r="D12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1981-1-1</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="2"/>
@@ -1997,13 +2018,13 @@
         <f t="shared" si="0"/>
         <v>10011</v>
       </c>
-      <c r="D13">
-        <f t="shared" ca="1" si="1"/>
-        <v>1983</v>
+      <c r="D13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1978-1-1</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2014,9 +2035,9 @@
         <f t="shared" si="0"/>
         <v>10012</v>
       </c>
-      <c r="D14">
-        <f t="shared" ca="1" si="1"/>
-        <v>2010</v>
+      <c r="D14" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1996-1-1</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="2"/>
@@ -2031,9 +2052,9 @@
         <f t="shared" si="0"/>
         <v>10013</v>
       </c>
-      <c r="D15">
-        <f t="shared" ca="1" si="1"/>
-        <v>2007</v>
+      <c r="D15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1972-1-1</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
@@ -2048,9 +2069,9 @@
         <f t="shared" si="0"/>
         <v>10014</v>
       </c>
-      <c r="D16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1973</v>
+      <c r="D16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1981-1-1</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
@@ -2065,9 +2086,9 @@
         <f t="shared" si="0"/>
         <v>10015</v>
       </c>
-      <c r="D17">
-        <f t="shared" ca="1" si="1"/>
-        <v>1980</v>
+      <c r="D17" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1975-1-1</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="2"/>
@@ -2082,13 +2103,13 @@
         <f t="shared" si="0"/>
         <v>10016</v>
       </c>
-      <c r="D18">
-        <f t="shared" ca="1" si="1"/>
-        <v>1985</v>
+      <c r="D18" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1980-1-1</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2099,9 +2120,9 @@
         <f t="shared" si="0"/>
         <v>10017</v>
       </c>
-      <c r="D19">
-        <f t="shared" ca="1" si="1"/>
-        <v>1966</v>
+      <c r="D19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2000-1-1</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="2"/>
@@ -2116,13 +2137,13 @@
         <f t="shared" si="0"/>
         <v>10018</v>
       </c>
-      <c r="D20">
-        <f t="shared" ca="1" si="1"/>
-        <v>1984</v>
+      <c r="D20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1979-1-1</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2133,9 +2154,9 @@
         <f t="shared" si="0"/>
         <v>10019</v>
       </c>
-      <c r="D21">
-        <f t="shared" ca="1" si="1"/>
-        <v>1997</v>
+      <c r="D21" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1998-1-1</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="2"/>
@@ -2150,13 +2171,13 @@
         <f t="shared" si="0"/>
         <v>10020</v>
       </c>
-      <c r="D22">
-        <f t="shared" ca="1" si="1"/>
-        <v>1978</v>
+      <c r="D22" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1989-1-1</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2167,9 +2188,9 @@
         <f t="shared" si="0"/>
         <v>10021</v>
       </c>
-      <c r="D23">
-        <f t="shared" ca="1" si="1"/>
-        <v>1992</v>
+      <c r="D23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1994-1-1</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
@@ -2184,13 +2205,13 @@
         <f t="shared" si="0"/>
         <v>10022</v>
       </c>
-      <c r="D24">
-        <f t="shared" ca="1" si="1"/>
-        <v>1983</v>
+      <c r="D24" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1984-1-1</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2201,13 +2222,13 @@
         <f t="shared" si="0"/>
         <v>10023</v>
       </c>
-      <c r="D25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1975</v>
+      <c r="D25" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1999-1-1</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2218,9 +2239,9 @@
         <f t="shared" si="0"/>
         <v>10024</v>
       </c>
-      <c r="D26">
-        <f t="shared" ca="1" si="1"/>
-        <v>2006</v>
+      <c r="D26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2000-1-1</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="2"/>
@@ -2235,9 +2256,9 @@
         <f t="shared" si="0"/>
         <v>10025</v>
       </c>
-      <c r="D27">
-        <f t="shared" ca="1" si="1"/>
-        <v>1977</v>
+      <c r="D27" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1996-1-1</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="2"/>
@@ -2252,9 +2273,9 @@
         <f t="shared" si="0"/>
         <v>10026</v>
       </c>
-      <c r="D28">
-        <f t="shared" ca="1" si="1"/>
-        <v>1974</v>
+      <c r="D28" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1973-1-1</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="2"/>
@@ -2269,9 +2290,9 @@
         <f t="shared" si="0"/>
         <v>10027</v>
       </c>
-      <c r="D29">
-        <f t="shared" ca="1" si="1"/>
-        <v>1991</v>
+      <c r="D29" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1995-1-1</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="2"/>
@@ -2286,13 +2307,13 @@
         <f t="shared" si="0"/>
         <v>10028</v>
       </c>
-      <c r="D30">
-        <f t="shared" ca="1" si="1"/>
-        <v>1973</v>
+      <c r="D30" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1975-1-1</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2303,13 +2324,13 @@
         <f t="shared" si="0"/>
         <v>10029</v>
       </c>
-      <c r="D31">
-        <f t="shared" ca="1" si="1"/>
-        <v>1995</v>
+      <c r="D31" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1978-1-1</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2320,13 +2341,13 @@
         <f t="shared" si="0"/>
         <v>10030</v>
       </c>
-      <c r="D32">
-        <f t="shared" ca="1" si="1"/>
-        <v>1981</v>
+      <c r="D32" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1985-1-1</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2337,9 +2358,9 @@
         <f t="shared" si="0"/>
         <v>10031</v>
       </c>
-      <c r="D33">
-        <f t="shared" ca="1" si="1"/>
-        <v>1973</v>
+      <c r="D33" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1988-1-1</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="2"/>
@@ -2354,13 +2375,13 @@
         <f t="shared" si="0"/>
         <v>10032</v>
       </c>
-      <c r="D34">
-        <f t="shared" ca="1" si="1"/>
-        <v>1971</v>
+      <c r="D34" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1989-1-1</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2371,13 +2392,13 @@
         <f t="shared" si="0"/>
         <v>10033</v>
       </c>
-      <c r="D35">
-        <f t="shared" ca="1" si="1"/>
-        <v>1981</v>
+      <c r="D35" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1980-1-1</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2388,9 +2409,9 @@
         <f t="shared" si="0"/>
         <v>10034</v>
       </c>
-      <c r="D36">
-        <f t="shared" ca="1" si="1"/>
-        <v>1970</v>
+      <c r="D36" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1978-1-1</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="2"/>
@@ -2405,13 +2426,13 @@
         <f t="shared" si="0"/>
         <v>10035</v>
       </c>
-      <c r="D37">
-        <f t="shared" ca="1" si="1"/>
-        <v>1994</v>
+      <c r="D37" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1970-1-1</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2422,13 +2443,13 @@
         <f t="shared" si="0"/>
         <v>10036</v>
       </c>
-      <c r="D38">
-        <f t="shared" ca="1" si="1"/>
-        <v>1969</v>
+      <c r="D38" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1999-1-1</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2439,9 +2460,9 @@
         <f t="shared" si="0"/>
         <v>10037</v>
       </c>
-      <c r="D39">
-        <f t="shared" ca="1" si="1"/>
-        <v>1976</v>
+      <c r="D39" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1984-1-1</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="2"/>
@@ -2456,9 +2477,9 @@
         <f t="shared" si="0"/>
         <v>10038</v>
       </c>
-      <c r="D40">
-        <f t="shared" ca="1" si="1"/>
-        <v>1986</v>
+      <c r="D40" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1985-1-1</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="2"/>
@@ -2473,13 +2494,13 @@
         <f t="shared" si="0"/>
         <v>10039</v>
       </c>
-      <c r="D41">
-        <f t="shared" ca="1" si="1"/>
-        <v>2001</v>
+      <c r="D41" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1990-1-1</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2490,13 +2511,13 @@
         <f t="shared" si="0"/>
         <v>10040</v>
       </c>
-      <c r="D42">
-        <f t="shared" ca="1" si="1"/>
-        <v>1992</v>
+      <c r="D42" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1989-1-1</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2507,13 +2528,13 @@
         <f t="shared" si="0"/>
         <v>10041</v>
       </c>
-      <c r="D43">
-        <f t="shared" ca="1" si="1"/>
-        <v>1976</v>
+      <c r="D43" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1991-1-1</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2524,9 +2545,9 @@
         <f t="shared" si="0"/>
         <v>10042</v>
       </c>
-      <c r="D44">
-        <f t="shared" ca="1" si="1"/>
-        <v>2004</v>
+      <c r="D44" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1977-1-1</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="2"/>
@@ -2541,9 +2562,9 @@
         <f t="shared" si="0"/>
         <v>10043</v>
       </c>
-      <c r="D45">
-        <f t="shared" ca="1" si="1"/>
-        <v>1986</v>
+      <c r="D45" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1994-1-1</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="2"/>
@@ -2558,13 +2579,13 @@
         <f t="shared" si="0"/>
         <v>10044</v>
       </c>
-      <c r="D46">
-        <f t="shared" ca="1" si="1"/>
-        <v>1967</v>
+      <c r="D46" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1970-1-1</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2575,13 +2596,13 @@
         <f t="shared" si="0"/>
         <v>10045</v>
       </c>
-      <c r="D47">
-        <f t="shared" ca="1" si="1"/>
-        <v>1999</v>
+      <c r="D47" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1977-1-1</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2592,13 +2613,13 @@
         <f t="shared" si="0"/>
         <v>10046</v>
       </c>
-      <c r="D48">
-        <f t="shared" ca="1" si="1"/>
-        <v>1979</v>
+      <c r="D48" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2000-1-1</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2609,9 +2630,9 @@
         <f t="shared" si="0"/>
         <v>10047</v>
       </c>
-      <c r="D49">
-        <f t="shared" ca="1" si="1"/>
-        <v>2000</v>
+      <c r="D49" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1976-1-1</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="2"/>
@@ -2626,9 +2647,9 @@
         <f t="shared" si="0"/>
         <v>10048</v>
       </c>
-      <c r="D50">
-        <f t="shared" ca="1" si="1"/>
-        <v>1975</v>
+      <c r="D50" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1968-1-1</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="2"/>
@@ -2643,9 +2664,9 @@
         <f t="shared" si="0"/>
         <v>10049</v>
       </c>
-      <c r="D51">
-        <f t="shared" ca="1" si="1"/>
-        <v>2009</v>
+      <c r="D51" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1968-1-1</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="2"/>
@@ -2660,9 +2681,9 @@
         <f t="shared" si="0"/>
         <v>10050</v>
       </c>
-      <c r="D52">
-        <f t="shared" ca="1" si="1"/>
-        <v>1985</v>
+      <c r="D52" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1978-1-1</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="2"/>
@@ -2677,13 +2698,13 @@
         <f t="shared" si="0"/>
         <v>10051</v>
       </c>
-      <c r="D53">
-        <f t="shared" ca="1" si="1"/>
-        <v>1991</v>
+      <c r="D53" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1990-1-1</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2694,9 +2715,9 @@
         <f t="shared" si="0"/>
         <v>10052</v>
       </c>
-      <c r="D54">
-        <f t="shared" ca="1" si="1"/>
-        <v>1986</v>
+      <c r="D54" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1995-1-1</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="2"/>
@@ -2711,9 +2732,9 @@
         <f t="shared" si="0"/>
         <v>10053</v>
       </c>
-      <c r="D55">
-        <f t="shared" ca="1" si="1"/>
-        <v>1975</v>
+      <c r="D55" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1995-1-1</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="2"/>
@@ -2728,13 +2749,13 @@
         <f t="shared" si="0"/>
         <v>10054</v>
       </c>
-      <c r="D56">
-        <f t="shared" ca="1" si="1"/>
-        <v>1992</v>
+      <c r="D56" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1993-1-1</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2745,9 +2766,9 @@
         <f t="shared" si="0"/>
         <v>10055</v>
       </c>
-      <c r="D57">
-        <f t="shared" ca="1" si="1"/>
-        <v>1966</v>
+      <c r="D57" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1987-1-1</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="2"/>
@@ -2762,9 +2783,9 @@
         <f t="shared" si="0"/>
         <v>10056</v>
       </c>
-      <c r="D58">
-        <f t="shared" ca="1" si="1"/>
-        <v>2002</v>
+      <c r="D58" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1998-1-1</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="2"/>
@@ -2779,13 +2800,13 @@
         <f t="shared" si="0"/>
         <v>10057</v>
       </c>
-      <c r="D59">
-        <f t="shared" ca="1" si="1"/>
-        <v>1998</v>
+      <c r="D59" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1966-1-1</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2796,9 +2817,9 @@
         <f t="shared" si="0"/>
         <v>10058</v>
       </c>
-      <c r="D60">
-        <f t="shared" ca="1" si="1"/>
-        <v>1979</v>
+      <c r="D60" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1994-1-1</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="2"/>
@@ -2813,13 +2834,13 @@
         <f t="shared" si="0"/>
         <v>10059</v>
       </c>
-      <c r="D61">
-        <f t="shared" ca="1" si="1"/>
-        <v>1978</v>
+      <c r="D61" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1984-1-1</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2830,13 +2851,13 @@
         <f t="shared" si="0"/>
         <v>10060</v>
       </c>
-      <c r="D62">
-        <f t="shared" ca="1" si="1"/>
-        <v>2006</v>
+      <c r="D62" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1988-1-1</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2847,13 +2868,13 @@
         <f t="shared" si="0"/>
         <v>10061</v>
       </c>
-      <c r="D63">
-        <f t="shared" ca="1" si="1"/>
-        <v>1989</v>
+      <c r="D63" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1975-1-1</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2864,13 +2885,13 @@
         <f t="shared" si="0"/>
         <v>10062</v>
       </c>
-      <c r="D64">
-        <f t="shared" ca="1" si="1"/>
-        <v>1974</v>
+      <c r="D64" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1980-1-1</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2881,9 +2902,9 @@
         <f t="shared" si="0"/>
         <v>10063</v>
       </c>
-      <c r="D65">
-        <f t="shared" ca="1" si="1"/>
-        <v>1999</v>
+      <c r="D65" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1965-1-1</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="2"/>
@@ -2898,9 +2919,9 @@
         <f t="shared" si="0"/>
         <v>10064</v>
       </c>
-      <c r="D66">
-        <f t="shared" ca="1" si="1"/>
-        <v>1997</v>
+      <c r="D66" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1972-1-1</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="2"/>
@@ -2915,9 +2936,9 @@
         <f t="shared" ref="B67:B100" si="3">A67</f>
         <v>10065</v>
       </c>
-      <c r="D67">
-        <f t="shared" ref="D67:D100" ca="1" si="4">RANDBETWEEN(1965, 2010)</f>
-        <v>1999</v>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D100" ca="1" si="4">RANDBETWEEN(1965, 2000)&amp;"-1-1"</f>
+        <v>1990-1-1</v>
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E100" ca="1" si="5">RANDBETWEEN(0,1)</f>
@@ -2932,9 +2953,9 @@
         <f t="shared" si="3"/>
         <v>10066</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1994</v>
+        <v>1997-1-1</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="5"/>
@@ -2949,13 +2970,13 @@
         <f t="shared" si="3"/>
         <v>10067</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1969</v>
+        <v>1972-1-1</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2966,13 +2987,13 @@
         <f t="shared" si="3"/>
         <v>10068</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1990</v>
+        <v>1997-1-1</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2983,9 +3004,9 @@
         <f t="shared" si="3"/>
         <v>10069</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1973</v>
+        <v>1977-1-1</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="5"/>
@@ -3000,9 +3021,9 @@
         <f t="shared" si="3"/>
         <v>10070</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1996</v>
+        <v>1995-1-1</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="5"/>
@@ -3017,9 +3038,9 @@
         <f t="shared" si="3"/>
         <v>10071</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1983</v>
+        <v>1978-1-1</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="5"/>
@@ -3034,9 +3055,9 @@
         <f t="shared" si="3"/>
         <v>10072</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1989</v>
+        <v>1977-1-1</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="5"/>
@@ -3051,9 +3072,9 @@
         <f t="shared" si="3"/>
         <v>10073</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1991</v>
+        <v>1980-1-1</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="5"/>
@@ -3068,13 +3089,13 @@
         <f t="shared" si="3"/>
         <v>10074</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1980</v>
+        <v>1977-1-1</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3085,13 +3106,13 @@
         <f t="shared" si="3"/>
         <v>10075</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1985</v>
+        <v>1996-1-1</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3102,9 +3123,9 @@
         <f t="shared" si="3"/>
         <v>10076</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1968</v>
+        <v>1971-1-1</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="5"/>
@@ -3119,9 +3140,9 @@
         <f t="shared" si="3"/>
         <v>10077</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1975</v>
+        <v>1980-1-1</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="5"/>
@@ -3136,9 +3157,9 @@
         <f t="shared" si="3"/>
         <v>10078</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1971</v>
+        <v>1975-1-1</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="5"/>
@@ -3153,13 +3174,13 @@
         <f t="shared" si="3"/>
         <v>10079</v>
       </c>
-      <c r="D81">
+      <c r="D81" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1990</v>
+        <v>1966-1-1</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -3170,13 +3191,13 @@
         <f t="shared" si="3"/>
         <v>10080</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1987</v>
+        <v>1996-1-1</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3187,9 +3208,9 @@
         <f t="shared" si="3"/>
         <v>10081</v>
       </c>
-      <c r="D83">
+      <c r="D83" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1991</v>
+        <v>1971-1-1</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="5"/>
@@ -3204,13 +3225,13 @@
         <f t="shared" si="3"/>
         <v>10082</v>
       </c>
-      <c r="D84">
+      <c r="D84" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1973</v>
+        <v>1980-1-1</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3221,9 +3242,9 @@
         <f t="shared" si="3"/>
         <v>10083</v>
       </c>
-      <c r="D85">
+      <c r="D85" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2004</v>
+        <v>1977-1-1</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="5"/>
@@ -3238,13 +3259,13 @@
         <f t="shared" si="3"/>
         <v>10084</v>
       </c>
-      <c r="D86">
+      <c r="D86" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1971</v>
+        <v>1975-1-1</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3255,13 +3276,13 @@
         <f t="shared" si="3"/>
         <v>10085</v>
       </c>
-      <c r="D87">
+      <c r="D87" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1969</v>
+        <v>1991-1-1</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3272,9 +3293,9 @@
         <f t="shared" si="3"/>
         <v>10086</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1975</v>
+        <v>2000-1-1</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="5"/>
@@ -3289,13 +3310,13 @@
         <f t="shared" si="3"/>
         <v>10087</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1986</v>
+        <v>1986-1-1</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3306,13 +3327,13 @@
         <f t="shared" si="3"/>
         <v>10088</v>
       </c>
-      <c r="D90">
+      <c r="D90" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2010</v>
+        <v>1966-1-1</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3323,13 +3344,13 @@
         <f t="shared" si="3"/>
         <v>10089</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1999</v>
+        <v>1976-1-1</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3340,13 +3361,13 @@
         <f t="shared" si="3"/>
         <v>10090</v>
       </c>
-      <c r="D92">
+      <c r="D92" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1987</v>
+        <v>1989-1-1</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3357,9 +3378,9 @@
         <f t="shared" si="3"/>
         <v>10091</v>
       </c>
-      <c r="D93">
+      <c r="D93" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1969</v>
+        <v>1981-1-1</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="5"/>
@@ -3374,9 +3395,9 @@
         <f t="shared" si="3"/>
         <v>10092</v>
       </c>
-      <c r="D94">
+      <c r="D94" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1979</v>
+        <v>1994-1-1</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="5"/>
@@ -3391,13 +3412,13 @@
         <f t="shared" si="3"/>
         <v>10093</v>
       </c>
-      <c r="D95">
+      <c r="D95" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1972</v>
+        <v>1967-1-1</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -3408,9 +3429,9 @@
         <f t="shared" si="3"/>
         <v>10094</v>
       </c>
-      <c r="D96">
+      <c r="D96" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1981</v>
+        <v>1991-1-1</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="5"/>
@@ -3425,13 +3446,13 @@
         <f t="shared" si="3"/>
         <v>10095</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2000</v>
+        <v>1975-1-1</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3442,13 +3463,13 @@
         <f t="shared" si="3"/>
         <v>10096</v>
       </c>
-      <c r="D98">
+      <c r="D98" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1988</v>
+        <v>1969-1-1</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3459,9 +3480,9 @@
         <f t="shared" si="3"/>
         <v>10097</v>
       </c>
-      <c r="D99">
+      <c r="D99" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1976</v>
+        <v>1975-1-1</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="5"/>
@@ -3476,13 +3497,13 @@
         <f t="shared" si="3"/>
         <v>10098</v>
       </c>
-      <c r="D100">
+      <c r="D100" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1970</v>
+        <v>1977-1-1</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3757,19 +3778,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3778,7 +3802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3786,7 +3810,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3794,7 +3818,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3802,10 +3826,45 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B10">
+    <sortCondition ref="B2:B10"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3814,33 +3873,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" customWidth="1"/>
     <col min="7" max="7" width="8.140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12" style="4" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" customWidth="1"/>
-    <col min="16" max="16" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.140625" customWidth="1"/>
     <col min="17" max="17" width="6.140625" customWidth="1"/>
     <col min="18" max="18" width="8.140625" customWidth="1"/>
-    <col min="19" max="19" width="15.5703125" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" customWidth="1"/>
-    <col min="21" max="21" width="6.7109375" customWidth="1"/>
-    <col min="22" max="22" width="7.42578125" customWidth="1"/>
+    <col min="19" max="19" width="25.140625" customWidth="1"/>
+    <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -3915,8 +3975,11 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E2">
         <v>10.749921000000001</v>
@@ -3925,10 +3988,10 @@
         <v>106.6511</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -3937,28 +4000,28 @@
         <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="Q2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="S2" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -3974,8 +4037,11 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E3">
         <v>10.772555000000001</v>
@@ -3984,35 +4050,35 @@
         <v>106.697997</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="S3" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -4028,8 +4094,11 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E4">
         <v>10.758158</v>
@@ -4041,7 +4110,7 @@
         <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I4">
         <v>9</v>
@@ -4050,26 +4119,26 @@
         <v>5</v>
       </c>
       <c r="K4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -4085,8 +4154,11 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E5">
         <v>10.777179</v>
@@ -4098,35 +4170,35 @@
         <v>135</v>
       </c>
       <c r="H5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -4142,8 +4214,11 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E6">
         <v>10.790362999999999</v>
@@ -4155,7 +4230,7 @@
         <v>339</v>
       </c>
       <c r="H6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I6">
         <v>7</v>
@@ -4164,28 +4239,28 @@
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -4201,8 +4276,11 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E7">
         <v>10.76821</v>
@@ -4214,7 +4292,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I7">
         <v>12</v>
@@ -4223,26 +4301,26 @@
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="T7">
         <v>1</v>
@@ -4258,8 +4336,11 @@
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E8">
         <v>10.757189</v>
@@ -4271,7 +4352,7 @@
         <v>120</v>
       </c>
       <c r="H8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -4280,26 +4361,26 @@
         <v>5</v>
       </c>
       <c r="K8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -4315,8 +4396,11 @@
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E9">
         <v>10.777946999999999</v>
@@ -4325,10 +4409,10 @@
         <v>106.68648399999999</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I9">
         <v>7</v>
@@ -4337,25 +4421,25 @@
         <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="T9">
         <v>1</v>
@@ -4371,8 +4455,11 @@
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E10">
         <v>10.779389999999999</v>
@@ -4384,7 +4471,7 @@
         <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I10">
         <v>6</v>
@@ -4393,26 +4480,26 @@
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="T10">
         <v>1</v>
@@ -4428,8 +4515,11 @@
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E11">
         <v>10.757826</v>
@@ -4438,10 +4528,10 @@
         <v>106.673295</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I11">
         <v>9</v>
@@ -4450,26 +4540,26 @@
         <v>5</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -4485,8 +4575,11 @@
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E12">
         <v>10.78105</v>
@@ -4498,37 +4591,37 @@
         <v>34</v>
       </c>
       <c r="H12" t="s">
+        <v>166</v>
+      </c>
+      <c r="I12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="R12" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I12" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12" t="s">
-        <v>84</v>
-      </c>
-      <c r="M12" t="s">
-        <v>79</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="S12" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -4544,8 +4637,11 @@
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E13">
         <v>10.755813</v>
@@ -4557,7 +4653,7 @@
         <v>126</v>
       </c>
       <c r="H13" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -4566,28 +4662,28 @@
         <v>10</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P13" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>164</v>
+      </c>
+      <c r="R13" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="Q13" t="s">
-        <v>168</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="S13" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="T13">
         <v>1</v>
@@ -4603,8 +4699,11 @@
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E14">
         <v>10.762627</v>
@@ -4616,35 +4715,35 @@
         <v>230</v>
       </c>
       <c r="H14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T14">
         <v>1</v>
@@ -4660,8 +4759,11 @@
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E15">
         <v>10.777514999999999</v>
@@ -4670,10 +4772,10 @@
         <v>106.681129</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H15" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I15">
         <v>12</v>
@@ -4682,26 +4784,26 @@
         <v>10</v>
       </c>
       <c r="K15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="T15">
         <v>1</v>
@@ -4717,8 +4819,11 @@
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E16">
         <v>10.774120999999999</v>
@@ -4727,38 +4832,38 @@
         <v>106.70453999999999</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H16" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="T16">
         <v>1</v>
@@ -4774,8 +4879,11 @@
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E17">
         <v>10.779745999999999</v>
@@ -4787,35 +4895,35 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="T17">
         <v>1</v>
@@ -4831,8 +4939,11 @@
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E18">
         <v>10.766275</v>
@@ -4841,10 +4952,10 @@
         <v>106.638227</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H18" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I18">
         <v>3</v>
@@ -4853,28 +4964,28 @@
         <v>11</v>
       </c>
       <c r="K18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="T18">
         <v>1</v>
@@ -4890,8 +5001,11 @@
       <c r="A19">
         <v>18</v>
       </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>238</v>
       </c>
       <c r="E19">
         <v>10.832378</v>
@@ -4900,40 +5014,40 @@
         <v>106.73774299999999</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H19" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I19">
         <v>28</v>
       </c>
       <c r="J19" t="s">
+        <v>202</v>
+      </c>
+      <c r="K19" t="s">
+        <v>82</v>
+      </c>
+      <c r="M19" t="s">
+        <v>77</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="R19" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="K19" t="s">
-        <v>84</v>
-      </c>
-      <c r="M19" t="s">
-        <v>79</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="S19" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="T19">
         <v>1</v>
@@ -4949,8 +5063,11 @@
       <c r="A20">
         <v>19</v>
       </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E20">
         <v>10.775603</v>
@@ -4962,45 +5079,48 @@
         <v>141</v>
       </c>
       <c r="H20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>82</v>
+      </c>
+      <c r="M20" t="s">
+        <v>77</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="R20" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="I20" t="s">
-        <v>88</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20" t="s">
-        <v>84</v>
-      </c>
-      <c r="M20" t="s">
-        <v>79</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="S20" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="E21">
         <v>10.799664999999999</v>
@@ -5009,40 +5129,40 @@
         <v>106.716516</v>
       </c>
       <c r="G21" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H21" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I21">
         <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S21" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -5332,7 +5452,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5340,7 +5460,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5348,7 +5468,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -5379,7 +5499,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5387,7 +5507,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5395,7 +5515,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Best20Places.xlsx
+++ b/Best20Places.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="261">
   <si>
     <t>Table_Name</t>
   </si>
@@ -364,9 +364,6 @@
   </si>
   <si>
     <t>Phở 24h</t>
-  </si>
-  <si>
-    <t>Windsor Plaza</t>
   </si>
   <si>
     <t>Đầm Sen Water Park</t>
@@ -895,6 +892,69 @@
   </si>
   <si>
     <t>birthday</t>
+  </si>
+  <si>
+    <t>Windsor Plaza Hotel</t>
+  </si>
+  <si>
+    <t>1_cho_binh_tay.jpg</t>
+  </si>
+  <si>
+    <t>2_cho_ben_thanh.jpg</t>
+  </si>
+  <si>
+    <t>3_cho_an_dong.jpg</t>
+  </si>
+  <si>
+    <t>4_dinh_doc_lap.jpg</t>
+  </si>
+  <si>
+    <t>5_chua_vinh_nghiem.jpg</t>
+  </si>
+  <si>
+    <t>6_bao_tang_ho_chi_minh.jpg</t>
+  </si>
+  <si>
+    <t>7_nha_tho_cho_quan.jpg</t>
+  </si>
+  <si>
+    <t>8_chua_xa_loi.jpg</t>
+  </si>
+  <si>
+    <t>9_bao_tang_chung_tich_chien_tranh.jpg</t>
+  </si>
+  <si>
+    <t>10_winsor_plaza_hotel.jpg</t>
+  </si>
+  <si>
+    <t>11_diamon_plaza.jpg</t>
+  </si>
+  <si>
+    <t>12_megastar.jpg</t>
+  </si>
+  <si>
+    <t>13_galaxy.jpg</t>
+  </si>
+  <si>
+    <t>14_nha_hang_mon_hue.jpg</t>
+  </si>
+  <si>
+    <t>15_pho_24.jpg</t>
+  </si>
+  <si>
+    <t>16_nha_tho_duc_ba.jpg</t>
+  </si>
+  <si>
+    <t>17_dam_sen_nuoc.jpg</t>
+  </si>
+  <si>
+    <t>18_binh_quoi.jpg</t>
+  </si>
+  <si>
+    <t>19_rex_hotel.jpg</t>
+  </si>
+  <si>
+    <t>20_van_thanh.jpg</t>
   </si>
 </sst>
 </file>
@@ -1817,7 +1877,7 @@
         <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E1" t="s">
         <v>46</v>
@@ -1833,7 +1893,7 @@
       </c>
       <c r="D2" t="str">
         <f ca="1">RANDBETWEEN(1965, 2000)&amp;"-1-1"</f>
-        <v>1990-1-1</v>
+        <v>1965-1-1</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(0,1)</f>
@@ -1850,7 +1910,7 @@
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D66" ca="1" si="1">RANDBETWEEN(1965, 2000)&amp;"-1-1"</f>
-        <v>1982-1-1</v>
+        <v>1971-1-1</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" ca="1" si="2">RANDBETWEEN(0,1)</f>
@@ -1867,7 +1927,7 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2000-1-1</v>
+        <v>1984-1-1</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="2"/>
@@ -1884,7 +1944,7 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1974-1-1</v>
+        <v>1983-1-1</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="2"/>
@@ -1901,11 +1961,11 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1993-1-1</v>
+        <v>1983-1-1</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1918,7 +1978,7 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1967-1-1</v>
+        <v>1995-1-1</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="2"/>
@@ -1935,7 +1995,7 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1991-1-1</v>
+        <v>1968-1-1</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="2"/>
@@ -1952,7 +2012,7 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1999-1-1</v>
+        <v>2000-1-1</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
@@ -1969,7 +2029,7 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1977-1-1</v>
+        <v>1989-1-1</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="2"/>
@@ -1986,11 +2046,11 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1996-1-1</v>
+        <v>1966-1-1</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2003,7 +2063,7 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1981-1-1</v>
+        <v>1986-1-1</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="2"/>
@@ -2020,11 +2080,11 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1978-1-1</v>
+        <v>2000-1-1</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2037,11 +2097,11 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1996-1-1</v>
+        <v>1968-1-1</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2054,7 +2114,7 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1972-1-1</v>
+        <v>1967-1-1</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
@@ -2071,7 +2131,7 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1981-1-1</v>
+        <v>1994-1-1</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
@@ -2088,7 +2148,7 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1975-1-1</v>
+        <v>2000-1-1</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="2"/>
@@ -2105,7 +2165,7 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1980-1-1</v>
+        <v>1977-1-1</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="2"/>
@@ -2122,7 +2182,7 @@
       </c>
       <c r="D19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2000-1-1</v>
+        <v>1973-1-1</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="2"/>
@@ -2139,11 +2199,11 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1979-1-1</v>
+        <v>1984-1-1</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2156,7 +2216,7 @@
       </c>
       <c r="D21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1998-1-1</v>
+        <v>1999-1-1</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="2"/>
@@ -2173,11 +2233,11 @@
       </c>
       <c r="D22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1989-1-1</v>
+        <v>1977-1-1</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2190,7 +2250,7 @@
       </c>
       <c r="D23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1994-1-1</v>
+        <v>1968-1-1</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
@@ -2207,11 +2267,11 @@
       </c>
       <c r="D24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1984-1-1</v>
+        <v>2000-1-1</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2224,7 +2284,7 @@
       </c>
       <c r="D25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1999-1-1</v>
+        <v>1997-1-1</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="2"/>
@@ -2241,11 +2301,11 @@
       </c>
       <c r="D26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2000-1-1</v>
+        <v>1999-1-1</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2258,7 +2318,7 @@
       </c>
       <c r="D27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1996-1-1</v>
+        <v>1983-1-1</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="2"/>
@@ -2275,7 +2335,7 @@
       </c>
       <c r="D28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1973-1-1</v>
+        <v>1993-1-1</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="2"/>
@@ -2292,7 +2352,7 @@
       </c>
       <c r="D29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1995-1-1</v>
+        <v>1970-1-1</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="2"/>
@@ -2309,11 +2369,11 @@
       </c>
       <c r="D30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1975-1-1</v>
+        <v>2000-1-1</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2326,11 +2386,11 @@
       </c>
       <c r="D31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1978-1-1</v>
+        <v>1999-1-1</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2343,7 +2403,7 @@
       </c>
       <c r="D32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1985-1-1</v>
+        <v>1966-1-1</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="2"/>
@@ -2360,11 +2420,11 @@
       </c>
       <c r="D33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1988-1-1</v>
+        <v>1970-1-1</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2377,11 +2437,11 @@
       </c>
       <c r="D34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1989-1-1</v>
+        <v>1991-1-1</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2394,7 +2454,7 @@
       </c>
       <c r="D35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1980-1-1</v>
+        <v>1991-1-1</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="2"/>
@@ -2411,7 +2471,7 @@
       </c>
       <c r="D36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1978-1-1</v>
+        <v>1987-1-1</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="2"/>
@@ -2428,7 +2488,7 @@
       </c>
       <c r="D37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1970-1-1</v>
+        <v>1994-1-1</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="2"/>
@@ -2445,11 +2505,11 @@
       </c>
       <c r="D38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1999-1-1</v>
+        <v>1990-1-1</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2462,11 +2522,11 @@
       </c>
       <c r="D39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1984-1-1</v>
+        <v>1995-1-1</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2479,11 +2539,11 @@
       </c>
       <c r="D40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1985-1-1</v>
+        <v>1998-1-1</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2496,11 +2556,11 @@
       </c>
       <c r="D41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1990-1-1</v>
+        <v>1998-1-1</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2513,11 +2573,11 @@
       </c>
       <c r="D42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1989-1-1</v>
+        <v>1987-1-1</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2530,7 +2590,7 @@
       </c>
       <c r="D43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1991-1-1</v>
+        <v>1965-1-1</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="2"/>
@@ -2551,7 +2611,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2564,11 +2624,11 @@
       </c>
       <c r="D45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1994-1-1</v>
+        <v>1987-1-1</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2581,7 +2641,7 @@
       </c>
       <c r="D46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1970-1-1</v>
+        <v>1979-1-1</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="2"/>
@@ -2598,7 +2658,7 @@
       </c>
       <c r="D47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1977-1-1</v>
+        <v>1989-1-1</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="2"/>
@@ -2615,7 +2675,7 @@
       </c>
       <c r="D48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2000-1-1</v>
+        <v>1984-1-1</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="2"/>
@@ -2632,7 +2692,7 @@
       </c>
       <c r="D49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1976-1-1</v>
+        <v>2000-1-1</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="2"/>
@@ -2649,11 +2709,11 @@
       </c>
       <c r="D50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1968-1-1</v>
+        <v>1975-1-1</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2666,11 +2726,11 @@
       </c>
       <c r="D51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1968-1-1</v>
+        <v>1975-1-1</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2683,11 +2743,11 @@
       </c>
       <c r="D52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1978-1-1</v>
+        <v>1973-1-1</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2700,11 +2760,11 @@
       </c>
       <c r="D53" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1990-1-1</v>
+        <v>1986-1-1</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2717,11 +2777,11 @@
       </c>
       <c r="D54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1995-1-1</v>
+        <v>1992-1-1</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2734,7 +2794,7 @@
       </c>
       <c r="D55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1995-1-1</v>
+        <v>1989-1-1</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="2"/>
@@ -2751,11 +2811,11 @@
       </c>
       <c r="D56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1993-1-1</v>
+        <v>1986-1-1</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2768,7 +2828,7 @@
       </c>
       <c r="D57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1987-1-1</v>
+        <v>1995-1-1</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="2"/>
@@ -2785,11 +2845,11 @@
       </c>
       <c r="D58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1998-1-1</v>
+        <v>1999-1-1</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2802,7 +2862,7 @@
       </c>
       <c r="D59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1966-1-1</v>
+        <v>1978-1-1</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="2"/>
@@ -2819,11 +2879,11 @@
       </c>
       <c r="D60" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1994-1-1</v>
+        <v>1969-1-1</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2836,7 +2896,7 @@
       </c>
       <c r="D61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1984-1-1</v>
+        <v>1969-1-1</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="2"/>
@@ -2853,11 +2913,11 @@
       </c>
       <c r="D62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1988-1-1</v>
+        <v>1998-1-1</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2870,7 +2930,7 @@
       </c>
       <c r="D63" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1975-1-1</v>
+        <v>1979-1-1</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="2"/>
@@ -2887,7 +2947,7 @@
       </c>
       <c r="D64" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1980-1-1</v>
+        <v>1986-1-1</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="2"/>
@@ -2904,11 +2964,11 @@
       </c>
       <c r="D65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1965-1-1</v>
+        <v>1972-1-1</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2921,7 +2981,7 @@
       </c>
       <c r="D66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1972-1-1</v>
+        <v>1999-1-1</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="2"/>
@@ -2938,7 +2998,7 @@
       </c>
       <c r="D67" t="str">
         <f t="shared" ref="D67:D100" ca="1" si="4">RANDBETWEEN(1965, 2000)&amp;"-1-1"</f>
-        <v>1990-1-1</v>
+        <v>1993-1-1</v>
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E100" ca="1" si="5">RANDBETWEEN(0,1)</f>
@@ -2955,11 +3015,11 @@
       </c>
       <c r="D68" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1997-1-1</v>
+        <v>1969-1-1</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2972,11 +3032,11 @@
       </c>
       <c r="D69" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1972-1-1</v>
+        <v>1983-1-1</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2989,7 +3049,7 @@
       </c>
       <c r="D70" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1997-1-1</v>
+        <v>1968-1-1</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="5"/>
@@ -3006,7 +3066,7 @@
       </c>
       <c r="D71" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1977-1-1</v>
+        <v>1982-1-1</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="5"/>
@@ -3023,11 +3083,11 @@
       </c>
       <c r="D72" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1995-1-1</v>
+        <v>1983-1-1</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3040,11 +3100,11 @@
       </c>
       <c r="D73" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1978-1-1</v>
+        <v>1983-1-1</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3057,11 +3117,11 @@
       </c>
       <c r="D74" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1977-1-1</v>
+        <v>1995-1-1</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3074,11 +3134,11 @@
       </c>
       <c r="D75" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1980-1-1</v>
+        <v>1987-1-1</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3091,11 +3151,11 @@
       </c>
       <c r="D76" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1977-1-1</v>
+        <v>1996-1-1</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3108,7 +3168,7 @@
       </c>
       <c r="D77" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1996-1-1</v>
+        <v>1989-1-1</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="5"/>
@@ -3125,11 +3185,11 @@
       </c>
       <c r="D78" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1971-1-1</v>
+        <v>1985-1-1</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3142,11 +3202,11 @@
       </c>
       <c r="D79" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1980-1-1</v>
+        <v>1994-1-1</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3159,11 +3219,11 @@
       </c>
       <c r="D80" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1975-1-1</v>
+        <v>1984-1-1</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3176,7 +3236,7 @@
       </c>
       <c r="D81" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1966-1-1</v>
+        <v>1987-1-1</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="5"/>
@@ -3193,11 +3253,11 @@
       </c>
       <c r="D82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1996-1-1</v>
+        <v>1977-1-1</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3210,7 +3270,7 @@
       </c>
       <c r="D83" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1971-1-1</v>
+        <v>1980-1-1</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="5"/>
@@ -3227,7 +3287,7 @@
       </c>
       <c r="D84" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1980-1-1</v>
+        <v>1965-1-1</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="5"/>
@@ -3244,11 +3304,11 @@
       </c>
       <c r="D85" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1977-1-1</v>
+        <v>1983-1-1</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3261,11 +3321,11 @@
       </c>
       <c r="D86" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1975-1-1</v>
+        <v>1989-1-1</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3278,11 +3338,11 @@
       </c>
       <c r="D87" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1991-1-1</v>
+        <v>1978-1-1</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3295,11 +3355,11 @@
       </c>
       <c r="D88" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2000-1-1</v>
+        <v>1967-1-1</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -3312,7 +3372,7 @@
       </c>
       <c r="D89" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1986-1-1</v>
+        <v>1974-1-1</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="5"/>
@@ -3329,11 +3389,11 @@
       </c>
       <c r="D90" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1966-1-1</v>
+        <v>1992-1-1</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3346,7 +3406,7 @@
       </c>
       <c r="D91" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1976-1-1</v>
+        <v>1996-1-1</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="5"/>
@@ -3363,11 +3423,11 @@
       </c>
       <c r="D92" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1989-1-1</v>
+        <v>1967-1-1</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3380,11 +3440,11 @@
       </c>
       <c r="D93" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1981-1-1</v>
+        <v>1985-1-1</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -3397,11 +3457,11 @@
       </c>
       <c r="D94" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1994-1-1</v>
+        <v>1965-1-1</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -3414,11 +3474,11 @@
       </c>
       <c r="D95" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1967-1-1</v>
+        <v>1999-1-1</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -3431,7 +3491,7 @@
       </c>
       <c r="D96" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1991-1-1</v>
+        <v>1968-1-1</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="5"/>
@@ -3448,11 +3508,11 @@
       </c>
       <c r="D97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1975-1-1</v>
+        <v>1974-1-1</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3465,7 +3525,7 @@
       </c>
       <c r="D98" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1969-1-1</v>
+        <v>1988-1-1</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="5"/>
@@ -3482,11 +3542,11 @@
       </c>
       <c r="D99" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1975-1-1</v>
+        <v>1980-1-1</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3499,7 +3559,7 @@
       </c>
       <c r="D100" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1977-1-1</v>
+        <v>1992-1-1</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="5"/>
@@ -3802,7 +3862,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3810,7 +3870,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3818,7 +3878,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3834,7 +3894,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3842,7 +3902,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3850,7 +3910,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3874,15 +3934,15 @@
   <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" customWidth="1"/>
     <col min="7" max="7" width="8.140625" style="6" customWidth="1"/>
@@ -3981,6 +4041,9 @@
       <c r="C2" t="s">
         <v>98</v>
       </c>
+      <c r="D2" t="s">
+        <v>241</v>
+      </c>
       <c r="E2">
         <v>10.749921000000001</v>
       </c>
@@ -4021,7 +4084,7 @@
         <v>80</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -4043,6 +4106,9 @@
       <c r="C3" t="s">
         <v>96</v>
       </c>
+      <c r="D3" t="s">
+        <v>242</v>
+      </c>
       <c r="E3">
         <v>10.772555000000001</v>
       </c>
@@ -4078,7 +4144,7 @@
         <v>89</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -4100,6 +4166,9 @@
       <c r="C4" t="s">
         <v>97</v>
       </c>
+      <c r="D4" t="s">
+        <v>243</v>
+      </c>
       <c r="E4">
         <v>10.758158</v>
       </c>
@@ -4138,7 +4207,7 @@
         <v>94</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -4158,7 +4227,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>148</v>
+      </c>
+      <c r="D5" t="s">
+        <v>244</v>
       </c>
       <c r="E5">
         <v>10.777179</v>
@@ -4170,10 +4242,10 @@
         <v>135</v>
       </c>
       <c r="H5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -4185,20 +4257,20 @@
         <v>77</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -4218,7 +4290,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="D6" t="s">
+        <v>245</v>
       </c>
       <c r="E6">
         <v>10.790362999999999</v>
@@ -4230,7 +4305,7 @@
         <v>339</v>
       </c>
       <c r="H6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I6">
         <v>7</v>
@@ -4245,22 +4320,22 @@
         <v>77</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q6" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="S6" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -4280,7 +4355,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="D7" t="s">
+        <v>246</v>
       </c>
       <c r="E7">
         <v>10.76821</v>
@@ -4292,7 +4370,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I7">
         <v>12</v>
@@ -4307,20 +4385,20 @@
         <v>77</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="R7" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="S7" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="T7">
         <v>1</v>
@@ -4342,6 +4420,9 @@
       <c r="C8" t="s">
         <v>99</v>
       </c>
+      <c r="D8" t="s">
+        <v>247</v>
+      </c>
       <c r="E8">
         <v>10.757189</v>
       </c>
@@ -4352,7 +4433,7 @@
         <v>120</v>
       </c>
       <c r="H8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -4367,20 +4448,20 @@
         <v>77</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q8" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="S8" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -4402,6 +4483,9 @@
       <c r="C9" t="s">
         <v>100</v>
       </c>
+      <c r="D9" t="s">
+        <v>248</v>
+      </c>
       <c r="E9">
         <v>10.777946999999999</v>
       </c>
@@ -4409,10 +4493,10 @@
         <v>106.68648399999999</v>
       </c>
       <c r="G9" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" t="s">
         <v>123</v>
-      </c>
-      <c r="H9" t="s">
-        <v>124</v>
       </c>
       <c r="I9">
         <v>7</v>
@@ -4427,19 +4511,19 @@
         <v>77</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="R9" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="S9" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T9">
         <v>1</v>
@@ -4461,6 +4545,9 @@
       <c r="C10" t="s">
         <v>101</v>
       </c>
+      <c r="D10" t="s">
+        <v>249</v>
+      </c>
       <c r="E10">
         <v>10.779389999999999</v>
       </c>
@@ -4471,7 +4558,7 @@
         <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I10">
         <v>6</v>
@@ -4486,20 +4573,20 @@
         <v>77</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q10" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="R10" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="S10" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T10">
         <v>1</v>
@@ -4519,7 +4606,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>240</v>
+      </c>
+      <c r="D11" t="s">
+        <v>250</v>
       </c>
       <c r="E11">
         <v>10.757826</v>
@@ -4528,7 +4618,7 @@
         <v>106.673295</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H11" t="s">
         <v>90</v>
@@ -4546,20 +4636,20 @@
         <v>77</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q11" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="R11" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="R11" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="S11" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -4581,6 +4671,9 @@
       <c r="C12" t="s">
         <v>102</v>
       </c>
+      <c r="D12" t="s">
+        <v>251</v>
+      </c>
       <c r="E12">
         <v>10.78105</v>
       </c>
@@ -4591,7 +4684,7 @@
         <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I12" t="s">
         <v>86</v>
@@ -4606,22 +4699,22 @@
         <v>77</v>
       </c>
       <c r="N12" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="R12" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="S12" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -4643,6 +4736,9 @@
       <c r="C13" t="s">
         <v>103</v>
       </c>
+      <c r="D13" t="s">
+        <v>252</v>
+      </c>
       <c r="E13">
         <v>10.755813</v>
       </c>
@@ -4653,7 +4749,7 @@
         <v>126</v>
       </c>
       <c r="H13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -4668,22 +4764,22 @@
         <v>77</v>
       </c>
       <c r="N13" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q13" t="s">
         <v>163</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q13" t="s">
+      <c r="R13" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="R13" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="S13" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="T13">
         <v>1</v>
@@ -4705,6 +4801,9 @@
       <c r="C14" t="s">
         <v>104</v>
       </c>
+      <c r="D14" t="s">
+        <v>253</v>
+      </c>
       <c r="E14">
         <v>10.762627</v>
       </c>
@@ -4715,10 +4814,10 @@
         <v>230</v>
       </c>
       <c r="H14" t="s">
+        <v>153</v>
+      </c>
+      <c r="I14" t="s">
         <v>154</v>
-      </c>
-      <c r="I14" t="s">
-        <v>155</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -4730,20 +4829,20 @@
         <v>77</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q14" t="s">
+        <v>157</v>
+      </c>
+      <c r="R14" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="R14" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="S14" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="T14">
         <v>1</v>
@@ -4763,7 +4862,10 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="D15" t="s">
+        <v>254</v>
       </c>
       <c r="E15">
         <v>10.777514999999999</v>
@@ -4772,10 +4874,10 @@
         <v>106.681129</v>
       </c>
       <c r="G15" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="H15" t="s">
         <v>181</v>
-      </c>
-      <c r="H15" t="s">
-        <v>182</v>
       </c>
       <c r="I15">
         <v>12</v>
@@ -4790,20 +4892,20 @@
         <v>77</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T15">
         <v>1</v>
@@ -4825,6 +4927,9 @@
       <c r="C16" t="s">
         <v>105</v>
       </c>
+      <c r="D16" t="s">
+        <v>255</v>
+      </c>
       <c r="E16">
         <v>10.774120999999999</v>
       </c>
@@ -4832,10 +4937,10 @@
         <v>106.70453999999999</v>
       </c>
       <c r="G16" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H16" t="s">
         <v>187</v>
-      </c>
-      <c r="H16" t="s">
-        <v>188</v>
       </c>
       <c r="I16" t="s">
         <v>86</v>
@@ -4850,20 +4955,20 @@
         <v>77</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="R16" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="Q16" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="S16" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T16">
         <v>1</v>
@@ -4883,7 +4988,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="D17" t="s">
+        <v>256</v>
       </c>
       <c r="E17">
         <v>10.779745999999999</v>
@@ -4895,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I17" t="s">
         <v>86</v>
@@ -4910,20 +5018,20 @@
         <v>77</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="S17" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="T17">
         <v>1</v>
@@ -4943,7 +5051,10 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D18" t="s">
+        <v>257</v>
       </c>
       <c r="E18">
         <v>10.766275</v>
@@ -4952,10 +5063,10 @@
         <v>106.638227</v>
       </c>
       <c r="G18" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H18" t="s">
         <v>194</v>
-      </c>
-      <c r="H18" t="s">
-        <v>195</v>
       </c>
       <c r="I18">
         <v>3</v>
@@ -4970,22 +5081,22 @@
         <v>77</v>
       </c>
       <c r="N18" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="P18" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="R18" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="S18" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="T18">
         <v>1</v>
@@ -5005,7 +5116,10 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>238</v>
+        <v>237</v>
+      </c>
+      <c r="D19" t="s">
+        <v>258</v>
       </c>
       <c r="E19">
         <v>10.832378</v>
@@ -5014,16 +5128,16 @@
         <v>106.73774299999999</v>
       </c>
       <c r="G19" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="H19" t="s">
         <v>200</v>
-      </c>
-      <c r="H19" t="s">
-        <v>201</v>
       </c>
       <c r="I19">
         <v>28</v>
       </c>
       <c r="J19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K19" t="s">
         <v>82</v>
@@ -5032,22 +5146,22 @@
         <v>77</v>
       </c>
       <c r="N19" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q19" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="O19" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q19" s="2" t="s">
+      <c r="R19" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="R19" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="S19" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T19">
         <v>1</v>
@@ -5067,7 +5181,10 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="D20" t="s">
+        <v>259</v>
       </c>
       <c r="E20">
         <v>10.775603</v>
@@ -5079,7 +5196,7 @@
         <v>141</v>
       </c>
       <c r="H20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I20" t="s">
         <v>86</v>
@@ -5094,22 +5211,22 @@
         <v>77</v>
       </c>
       <c r="N20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="O20" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="O20" s="5" t="s">
+      <c r="P20" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="Q20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="R20" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="Q20" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="S20" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5120,7 +5237,10 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>239</v>
+        <v>238</v>
+      </c>
+      <c r="D21" t="s">
+        <v>260</v>
       </c>
       <c r="E21">
         <v>10.799664999999999</v>
@@ -5129,16 +5249,16 @@
         <v>106.716516</v>
       </c>
       <c r="G21" t="s">
+        <v>206</v>
+      </c>
+      <c r="H21" t="s">
         <v>207</v>
-      </c>
-      <c r="H21" t="s">
-        <v>208</v>
       </c>
       <c r="I21">
         <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K21" t="s">
         <v>82</v>
@@ -5147,22 +5267,22 @@
         <v>77</v>
       </c>
       <c r="N21" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="O21" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="P21" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="R21" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="P21" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="S21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">

--- a/Best20Places.xlsx
+++ b/Best20Places.xlsx
@@ -1893,11 +1893,11 @@
       </c>
       <c r="D2" t="str">
         <f ca="1">RANDBETWEEN(1965, 2000)&amp;"-1-1"</f>
-        <v>1965-1-1</v>
+        <v>1968-1-1</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D66" ca="1" si="1">RANDBETWEEN(1965, 2000)&amp;"-1-1"</f>
-        <v>1971-1-1</v>
+        <v>1996-1-1</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" ca="1" si="2">RANDBETWEEN(0,1)</f>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1984-1-1</v>
+        <v>1979-1-1</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="2"/>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1983-1-1</v>
+        <v>1982-1-1</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="2"/>
@@ -1961,11 +1961,11 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1983-1-1</v>
+        <v>1979-1-1</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1995-1-1</v>
+        <v>1980-1-1</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="2"/>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1968-1-1</v>
+        <v>1971-1-1</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="2"/>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2000-1-1</v>
+        <v>1980-1-1</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1989-1-1</v>
+        <v>1983-1-1</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="2"/>
@@ -2046,11 +2046,11 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1966-1-1</v>
+        <v>1987-1-1</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2063,11 +2063,11 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1986-1-1</v>
+        <v>1993-1-1</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2080,11 +2080,11 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2000-1-1</v>
+        <v>1970-1-1</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2097,11 +2097,11 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1968-1-1</v>
+        <v>1969-1-1</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2114,7 +2114,7 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1967-1-1</v>
+        <v>1999-1-1</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
@@ -2131,11 +2131,11 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1994-1-1</v>
+        <v>1978-1-1</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2148,11 +2148,11 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2000-1-1</v>
+        <v>1990-1-1</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1977-1-1</v>
+        <v>1987-1-1</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="2"/>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="D19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1973-1-1</v>
+        <v>1987-1-1</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="2"/>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1984-1-1</v>
+        <v>1967-1-1</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="2"/>
@@ -2216,11 +2216,11 @@
       </c>
       <c r="D21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1999-1-1</v>
+        <v>1975-1-1</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1977-1-1</v>
+        <v>1969-1-1</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="2"/>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="D23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1968-1-1</v>
+        <v>1992-1-1</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="D24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2000-1-1</v>
+        <v>1987-1-1</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="2"/>
@@ -2284,11 +2284,11 @@
       </c>
       <c r="D25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1997-1-1</v>
+        <v>1994-1-1</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2301,11 +2301,11 @@
       </c>
       <c r="D26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1999-1-1</v>
+        <v>1987-1-1</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="D27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1983-1-1</v>
+        <v>1978-1-1</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="2"/>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="D29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1970-1-1</v>
+        <v>1981-1-1</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="2"/>
@@ -2369,11 +2369,11 @@
       </c>
       <c r="D30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2000-1-1</v>
+        <v>1974-1-1</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2386,11 +2386,11 @@
       </c>
       <c r="D31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1999-1-1</v>
+        <v>1972-1-1</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2403,11 +2403,11 @@
       </c>
       <c r="D32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1966-1-1</v>
+        <v>1975-1-1</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2420,11 +2420,11 @@
       </c>
       <c r="D33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1970-1-1</v>
+        <v>1967-1-1</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="D34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1991-1-1</v>
+        <v>1981-1-1</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="2"/>
@@ -2454,11 +2454,11 @@
       </c>
       <c r="D35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1991-1-1</v>
+        <v>1997-1-1</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2471,11 +2471,11 @@
       </c>
       <c r="D36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1987-1-1</v>
+        <v>1972-1-1</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="D37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1994-1-1</v>
+        <v>1978-1-1</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="2"/>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="D38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1990-1-1</v>
+        <v>1991-1-1</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="2"/>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="D39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1995-1-1</v>
+        <v>1973-1-1</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="2"/>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="D40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1998-1-1</v>
+        <v>1986-1-1</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="2"/>
@@ -2556,11 +2556,11 @@
       </c>
       <c r="D41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1998-1-1</v>
+        <v>1989-1-1</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2573,11 +2573,11 @@
       </c>
       <c r="D42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1987-1-1</v>
+        <v>1984-1-1</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2590,11 +2590,11 @@
       </c>
       <c r="D43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1965-1-1</v>
+        <v>1976-1-1</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2607,11 +2607,11 @@
       </c>
       <c r="D44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1977-1-1</v>
+        <v>1965-1-1</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="D45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1987-1-1</v>
+        <v>1971-1-1</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="2"/>
@@ -2641,11 +2641,11 @@
       </c>
       <c r="D46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1979-1-1</v>
+        <v>1967-1-1</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2658,11 +2658,11 @@
       </c>
       <c r="D47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1989-1-1</v>
+        <v>1967-1-1</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="D48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1984-1-1</v>
+        <v>1982-1-1</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="2"/>
@@ -2692,11 +2692,11 @@
       </c>
       <c r="D49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2000-1-1</v>
+        <v>1984-1-1</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2709,11 +2709,11 @@
       </c>
       <c r="D50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1975-1-1</v>
+        <v>1985-1-1</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="D51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1975-1-1</v>
+        <v>1998-1-1</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="2"/>
@@ -2743,11 +2743,11 @@
       </c>
       <c r="D52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1973-1-1</v>
+        <v>1990-1-1</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="D53" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1986-1-1</v>
+        <v>1985-1-1</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="2"/>
@@ -2777,11 +2777,11 @@
       </c>
       <c r="D54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1992-1-1</v>
+        <v>1969-1-1</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="D55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1989-1-1</v>
+        <v>1986-1-1</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="2"/>
@@ -2811,11 +2811,11 @@
       </c>
       <c r="D56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1986-1-1</v>
+        <v>1998-1-1</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2828,11 +2828,11 @@
       </c>
       <c r="D57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1995-1-1</v>
+        <v>1997-1-1</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="D58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1999-1-1</v>
+        <v>1986-1-1</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="2"/>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="D59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1978-1-1</v>
+        <v>1972-1-1</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="2"/>
@@ -2879,11 +2879,11 @@
       </c>
       <c r="D60" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1969-1-1</v>
+        <v>1965-1-1</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="D61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1969-1-1</v>
+        <v>1985-1-1</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="2"/>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="D62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1998-1-1</v>
+        <v>1974-1-1</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="2"/>
@@ -2930,11 +2930,11 @@
       </c>
       <c r="D63" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1979-1-1</v>
+        <v>1982-1-1</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2964,11 +2964,11 @@
       </c>
       <c r="D65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1972-1-1</v>
+        <v>1992-1-1</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="D66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1999-1-1</v>
+        <v>1970-1-1</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="2"/>
@@ -2998,11 +2998,11 @@
       </c>
       <c r="D67" t="str">
         <f t="shared" ref="D67:D100" ca="1" si="4">RANDBETWEEN(1965, 2000)&amp;"-1-1"</f>
-        <v>1993-1-1</v>
+        <v>1996-1-1</v>
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E100" ca="1" si="5">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3015,7 +3015,7 @@
       </c>
       <c r="D68" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1969-1-1</v>
+        <v>1994-1-1</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="5"/>
@@ -3032,11 +3032,11 @@
       </c>
       <c r="D69" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1983-1-1</v>
+        <v>1997-1-1</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="D70" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1968-1-1</v>
+        <v>1976-1-1</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="5"/>
@@ -3066,11 +3066,11 @@
       </c>
       <c r="D71" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1982-1-1</v>
+        <v>1984-1-1</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3083,11 +3083,11 @@
       </c>
       <c r="D72" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1983-1-1</v>
+        <v>2000-1-1</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3100,11 +3100,11 @@
       </c>
       <c r="D73" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1983-1-1</v>
+        <v>1982-1-1</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="D74" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1995-1-1</v>
+        <v>1990-1-1</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="5"/>
@@ -3134,11 +3134,11 @@
       </c>
       <c r="D75" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1987-1-1</v>
+        <v>1999-1-1</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="D76" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1996-1-1</v>
+        <v>1982-1-1</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="5"/>
@@ -3168,11 +3168,11 @@
       </c>
       <c r="D77" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1989-1-1</v>
+        <v>1976-1-1</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3185,7 +3185,7 @@
       </c>
       <c r="D78" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1985-1-1</v>
+        <v>1990-1-1</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="5"/>
@@ -3202,7 +3202,7 @@
       </c>
       <c r="D79" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1994-1-1</v>
+        <v>1989-1-1</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="5"/>
@@ -3219,11 +3219,11 @@
       </c>
       <c r="D80" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1984-1-1</v>
+        <v>1978-1-1</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="D81" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1987-1-1</v>
+        <v>1975-1-1</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="5"/>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="D82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1977-1-1</v>
+        <v>1972-1-1</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="5"/>
@@ -3270,7 +3270,7 @@
       </c>
       <c r="D83" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1980-1-1</v>
+        <v>1965-1-1</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="5"/>
@@ -3287,11 +3287,11 @@
       </c>
       <c r="D84" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1965-1-1</v>
+        <v>1993-1-1</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="D85" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1983-1-1</v>
+        <v>2000-1-1</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="5"/>
@@ -3321,11 +3321,11 @@
       </c>
       <c r="D86" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1989-1-1</v>
+        <v>1990-1-1</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3338,11 +3338,11 @@
       </c>
       <c r="D87" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1978-1-1</v>
+        <v>1988-1-1</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3355,11 +3355,11 @@
       </c>
       <c r="D88" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1967-1-1</v>
+        <v>1971-1-1</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="D89" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1974-1-1</v>
+        <v>1980-1-1</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="5"/>
@@ -3389,11 +3389,11 @@
       </c>
       <c r="D90" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1992-1-1</v>
+        <v>1978-1-1</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="D91" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1996-1-1</v>
+        <v>1978-1-1</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="5"/>
@@ -3423,7 +3423,7 @@
       </c>
       <c r="D92" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1967-1-1</v>
+        <v>2000-1-1</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="5"/>
@@ -3440,11 +3440,11 @@
       </c>
       <c r="D93" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1985-1-1</v>
+        <v>1999-1-1</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="D94" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1965-1-1</v>
+        <v>1972-1-1</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="5"/>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D95" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1999-1-1</v>
+        <v>1991-1-1</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="5"/>
@@ -3491,11 +3491,11 @@
       </c>
       <c r="D96" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1968-1-1</v>
+        <v>1994-1-1</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3508,7 +3508,7 @@
       </c>
       <c r="D97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1974-1-1</v>
+        <v>1997-1-1</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="5"/>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="D98" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1988-1-1</v>
+        <v>1967-1-1</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="5"/>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="D99" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1980-1-1</v>
+        <v>1993-1-1</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="5"/>
@@ -3559,11 +3559,11 @@
       </c>
       <c r="D100" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1992-1-1</v>
+        <v>1974-1-1</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3933,8 +3933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5122,10 +5122,10 @@
         <v>258</v>
       </c>
       <c r="E19">
-        <v>10.832378</v>
+        <v>10.833758</v>
       </c>
       <c r="F19">
-        <v>106.73774299999999</v>
+        <v>106.743252</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>199</v>
